--- a/medicine/Enfance/Bertrand_Solet/Bertrand_Solet.xlsx
+++ b/medicine/Enfance/Bertrand_Solet/Bertrand_Solet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bertrand Solet, de son nom Bertrand Soletchnik, né le 20 août 1933 à Paris et mort le 4 février 2017 à Montreuil[1], est un auteur de livres pour adolescents. Il a aussi été chef du service de documentation dans une importante société commerciale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertrand Solet, de son nom Bertrand Soletchnik, né le 20 août 1933 à Paris et mort le 4 février 2017 à Montreuil, est un auteur de livres pour adolescents. Il a aussi été chef du service de documentation dans une importante société commerciale.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie, en or</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertrand Solet vient d’une famille d’émigrés russes. Au début de la Seconde Guerre mondiale, il a suivi ses parents dans le midi, en zone dite libre. Durant cette période, il a attrapé une maladie que l’on connaissait mal à l’époque et que l’on soignait mal : la poliomyélite. C'est durant cette période de maladie qu’il dit avoir dévoré bien des livres des bibliothèques environnantes. Après la guerre, il s’est retrouvé orphelin, élevé et soigné par une tante.
 Voulant exprimer ses idées, il prépara l’entrée d’une grande école cinématographique, mais l’arrivée en masse du cinéma américain faillit coûter la vie au cinéma français et Bertrand dut changer d’orientation. Après quelques essais dans le journalisme, il entra dans une entreprise de commerce international et devint responsable du service de documentation économique, un travail qui le fit beaucoup voyager.
@@ -546,13 +560,15 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bertrand Solet est l'auteur de nombreux romans pour la jeunesse tels que :
 Les Révoltés de Saint-Domingue, paru dans la collection Plein Vent en 1969 ;
 Les Frères des nuages, paru dans la collection Travelling sur le futur en 1977 ;
 En 1789, Nicolas de Montreuil, illustré par Michel Galvin, publié en 1988 ;
-La Troupe sans pareille (Hachette jeunesse), lauréat du prix Amerigo-Vespucci Jeunesse 1994 [2] ;
+La Troupe sans pareille (Hachette jeunesse), lauréat du prix Amerigo-Vespucci Jeunesse 1994  ;
 La Chasse aux enfants, publié aux éditions Syros Jeunesse en 1996 ;
 Farces à Venise, paru en 2009, édité chez Seuil jeunesse  (ISBN 9782020991933).
 Il était un capitaine, paru en 2002, chez Le Livre de Poche Jeunesse, édition Hachette  (ISBN 9782010023491)</t>
